--- a/Backlog Detallado del Producto.xlsx
+++ b/Backlog Detallado del Producto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labf202\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B041E2-72F8-4FEE-B7A7-9FF97AD51621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F7B67-3C57-4AE4-8E4A-BA2D5F9346B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog del Producto" sheetId="2" r:id="rId1"/>
@@ -51,16 +51,11 @@
     <definedName name="TrendSprintCount">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="gik4ULONuQgexyLg5ycYxc2+f4EMMatFrMCxmjGWzSg="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="151">
   <si>
     <t>Backlog Detallado del Producto</t>
   </si>
@@ -551,6 +546,18 @@
   <si>
     <t>Historias sin Asignar</t>
   </si>
+  <si>
+    <t>Proceso EPIC01, EPIC02, EPIC03 y EPIC04</t>
+  </si>
+  <si>
+    <t>Terminar EPIC01, EPIC02, EPIC03 y EPIC04</t>
+  </si>
+  <si>
+    <t>Terminar EPIC05</t>
+  </si>
+  <si>
+    <t>Terminar EPIC06 y EPIC07</t>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -609,6 +616,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -802,10 +815,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -936,21 +950,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -958,9 +969,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -980,27 +998,19 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
@@ -1044,19 +1054,27 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1395,7 +1413,7 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1451,14 +1469,14 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
@@ -1485,14 +1503,14 @@
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
@@ -1549,25 +1567,25 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="53" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -30169,47 +30187,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:N999">
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>$M7="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:N999">
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>$M7="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:N999">
-    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>$M7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>$M10="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>$M10="In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>$M10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
       <formula>$M8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
       <formula>$M8="In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
       <formula>$M8="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30230,8 +30248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30290,8 +30308,8 @@
         <v>10</v>
       </c>
       <c r="E3" s="43">
-        <f t="shared" ref="E3:E7" si="0">IF(AND(C3&lt;&gt;"",D3&lt;&gt;""),C3+D3-1,"")</f>
-        <v>45217</v>
+        <f>IF(AND(C3&lt;&gt;"",D3&lt;&gt;""),C3+D3+1,"")</f>
+        <v>45219</v>
       </c>
       <c r="F3" s="36">
         <f>IF(B3="","",SUMIF('Backlog del Producto'!$L$7:$L$35,Sprints!B3,'Backlog del Producto'!J7:J35))</f>
@@ -30301,23 +30319,25 @@
         <v>145</v>
       </c>
       <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="I3" s="58" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="4" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="36">
         <v>2</v>
       </c>
       <c r="C4" s="42">
-        <f t="shared" ref="C4:C7" si="1">IF(AND(C3&lt;&gt;"",D3&lt;&gt;"",D4&lt;&gt;""),C3+D3,"")</f>
-        <v>45218</v>
+        <f>IF(AND(C3&lt;&gt;"",D3&lt;&gt;"",D4&lt;&gt;""),C3+D3+2*(ROUNDDOWN(D3/5,0)),"")</f>
+        <v>45222</v>
       </c>
       <c r="D4" s="38">
         <f>MAX('Backlog del Producto'!J11,'Backlog del Producto'!J12,'Backlog del Producto'!J14,'Backlog del Producto'!J19,'Backlog del Producto'!J23,'Backlog del Producto'!J24,)/2</f>
         <v>10</v>
       </c>
       <c r="E4" s="43">
-        <f t="shared" si="0"/>
-        <v>45227</v>
+        <f t="shared" ref="E4:E6" si="0">IF(AND(C4&lt;&gt;"",D4&lt;&gt;""),C4+D4+1,"")</f>
+        <v>45233</v>
       </c>
       <c r="F4" s="36">
         <f>IF(B4="","",SUMIF('Backlog del Producto'!$L$7:$L$35,Sprints!B4,'Backlog del Producto'!J8:J36))</f>
@@ -30327,15 +30347,17 @@
         <v>145</v>
       </c>
       <c r="H4" s="44"/>
-      <c r="I4" s="41"/>
+      <c r="I4" s="58" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="36">
         <v>3</v>
       </c>
       <c r="C5" s="42">
-        <f t="shared" si="1"/>
-        <v>45228</v>
+        <f t="shared" ref="C5:C7" si="1">IF(AND(C4&lt;&gt;"",D4&lt;&gt;"",D5&lt;&gt;""),C4+D4+2*(ROUNDDOWN(D4/5,0)),"")</f>
+        <v>45236</v>
       </c>
       <c r="D5" s="38">
         <f>MAX('Backlog del Producto'!J10,'Backlog del Producto'!J15,'Backlog del Producto'!J20,'Backlog del Producto'!J21,'Backlog del Producto'!J25)/2</f>
@@ -30343,7 +30365,7 @@
       </c>
       <c r="E5" s="43">
         <f t="shared" si="0"/>
-        <v>45235</v>
+        <v>45245</v>
       </c>
       <c r="F5" s="36">
         <f>IF(B5="","",SUMIF('Backlog del Producto'!$L$7:$L$35,Sprints!B5,'Backlog del Producto'!J9:J37))</f>
@@ -30353,7 +30375,9 @@
         <v>145</v>
       </c>
       <c r="H5" s="44"/>
-      <c r="I5" s="41"/>
+      <c r="I5" s="58" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="36">
@@ -30361,7 +30385,7 @@
       </c>
       <c r="C6" s="42">
         <f t="shared" si="1"/>
-        <v>45236</v>
+        <v>45246</v>
       </c>
       <c r="D6" s="38">
         <f>MAX('Backlog del Producto'!J26,'Backlog del Producto'!J27,'Backlog del Producto'!J28,'Backlog del Producto'!J29)/2</f>
@@ -30369,7 +30393,7 @@
       </c>
       <c r="E6" s="43">
         <f t="shared" si="0"/>
-        <v>45241</v>
+        <v>45253</v>
       </c>
       <c r="F6" s="36">
         <f>IF(B6="","",SUMIF('Backlog del Producto'!$L$7:$L$35,Sprints!B6,'Backlog del Producto'!J10:J38))</f>
@@ -30379,7 +30403,9 @@
         <v>145</v>
       </c>
       <c r="H6" s="44"/>
-      <c r="I6" s="41"/>
+      <c r="I6" s="58" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="36">
@@ -30387,15 +30413,15 @@
       </c>
       <c r="C7" s="42">
         <f t="shared" si="1"/>
-        <v>45242</v>
+        <v>45254</v>
       </c>
       <c r="D7" s="38">
         <f>MAX('Backlog del Producto'!J30,'Backlog del Producto'!J31,'Backlog del Producto'!J32,'Backlog del Producto'!J33,'Backlog del Producto'!J34,'Backlog del Producto'!J35)/2</f>
         <v>8</v>
       </c>
       <c r="E7" s="43">
-        <f t="shared" si="0"/>
-        <v>45249</v>
+        <f>IF(AND(C7&lt;&gt;"",D7&lt;&gt;""),C7+D7+3,"")</f>
+        <v>45265</v>
       </c>
       <c r="F7" s="36">
         <f>IF(B7="","",SUMIF('Backlog del Producto'!$L$7:$L$35,Sprints!B7,'Backlog del Producto'!J11:J39))</f>
@@ -30405,7 +30431,9 @@
         <v>145</v>
       </c>
       <c r="H7" s="44"/>
-      <c r="I7" s="41"/>
+      <c r="I7" s="58" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="36"/>
@@ -33605,38 +33633,48 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I17 B3:F17">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I17 B3:F17 H3:H7">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I17 B3:F17">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I17 B3:F17 H3:H7">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>OR($G18="Planned",$G18="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>$G18="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I7">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>OR($G3="Planned",$G3="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I7">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$G18="Ongoing"</formula>
+      <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
